--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Igfbp4-Fzd8.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H2">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I2">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J2">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N2">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P2">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q2">
-        <v>21.72559309763344</v>
+        <v>60.87940881353799</v>
       </c>
       <c r="R2">
-        <v>195.530337878701</v>
+        <v>547.914679321842</v>
       </c>
       <c r="S2">
-        <v>0.004292427898133173</v>
+        <v>0.01031816619205419</v>
       </c>
       <c r="T2">
-        <v>0.004292427898133173</v>
+        <v>0.01031816619205419</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H3">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I3">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J3">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>34.877361</v>
       </c>
       <c r="O3">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P3">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q3">
-        <v>71.06116206360032</v>
+        <v>208.7555998229473</v>
       </c>
       <c r="R3">
-        <v>639.5504585724029</v>
+        <v>1878.800398406526</v>
       </c>
       <c r="S3">
-        <v>0.01403988895238892</v>
+        <v>0.0353810100077079</v>
       </c>
       <c r="T3">
-        <v>0.01403988895238892</v>
+        <v>0.0353810100077079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H4">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I4">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J4">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N4">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P4">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q4">
-        <v>14.61182440235389</v>
+        <v>81.63168054817223</v>
       </c>
       <c r="R4">
-        <v>131.506419621185</v>
+        <v>734.68512493355</v>
       </c>
       <c r="S4">
-        <v>0.002886927064565109</v>
+        <v>0.01383537164449952</v>
       </c>
       <c r="T4">
-        <v>0.002886927064565109</v>
+        <v>0.01383537164449953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.112374333333332</v>
+        <v>17.95625533333333</v>
       </c>
       <c r="H5">
-        <v>18.337123</v>
+        <v>53.86876599999999</v>
       </c>
       <c r="I5">
-        <v>0.02125075796073208</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="J5">
-        <v>0.02125075796073207</v>
+        <v>0.05960074617816258</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N5">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P5">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q5">
-        <v>0.1595044456864444</v>
+        <v>0.3905844660106667</v>
       </c>
       <c r="R5">
-        <v>1.435540011178</v>
+        <v>3.515260194096</v>
       </c>
       <c r="S5">
-        <v>3.151404564487316E-05</v>
+        <v>6.619833390097912E-05</v>
       </c>
       <c r="T5">
-        <v>3.151404564487316E-05</v>
+        <v>6.619833390097912E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H6">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I6">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J6">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N6">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O6">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P6">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q6">
-        <v>935.1188544573881</v>
+        <v>891.9895568513439</v>
       </c>
       <c r="R6">
-        <v>8416.069690116494</v>
+        <v>8027.906011662095</v>
       </c>
       <c r="S6">
-        <v>0.1847558426094458</v>
+        <v>0.1511791370602513</v>
       </c>
       <c r="T6">
-        <v>0.1847558426094459</v>
+        <v>0.1511791370602514</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H7">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I7">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J7">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>34.877361</v>
       </c>
       <c r="O7">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P7">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q7">
         <v>3058.633758199365</v>
       </c>
       <c r="R7">
-        <v>27527.70382379428</v>
+        <v>27527.70382379429</v>
       </c>
       <c r="S7">
-        <v>0.6043086978047563</v>
+        <v>0.5183935266912501</v>
       </c>
       <c r="T7">
-        <v>0.6043086978047563</v>
+        <v>0.5183935266912501</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H8">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I8">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J8">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N8">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O8">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P8">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q8">
-        <v>628.9260981395287</v>
+        <v>1196.046544739156</v>
       </c>
       <c r="R8">
-        <v>5660.334883255759</v>
+        <v>10764.4189026524</v>
       </c>
       <c r="S8">
-        <v>0.1242598955704562</v>
+        <v>0.202712333489455</v>
       </c>
       <c r="T8">
-        <v>0.1242598955704562</v>
+        <v>0.2027123334894551</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>263.0904693333333</v>
       </c>
       <c r="H9">
-        <v>789.2714079999998</v>
+        <v>789.271408</v>
       </c>
       <c r="I9">
-        <v>0.9146808720612395</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="J9">
-        <v>0.9146808720612394</v>
+        <v>0.8732549183303921</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N9">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O9">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P9">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q9">
-        <v>6.865433494076442</v>
+        <v>5.722743888938667</v>
       </c>
       <c r="R9">
-        <v>61.78890144668798</v>
+        <v>51.504695000448</v>
       </c>
       <c r="S9">
-        <v>0.001356436076581114</v>
+        <v>0.0009699210894357581</v>
       </c>
       <c r="T9">
-        <v>0.001356436076581114</v>
+        <v>0.0009699210894357581</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H10">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I10">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J10">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N10">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O10">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P10">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q10">
-        <v>35.93647633894966</v>
+        <v>44.52661707129999</v>
       </c>
       <c r="R10">
-        <v>323.428287050547</v>
+        <v>400.7395536417</v>
       </c>
       <c r="S10">
-        <v>0.007100139126453265</v>
+        <v>0.007546608021749784</v>
       </c>
       <c r="T10">
-        <v>0.007100139126453267</v>
+        <v>0.007546608021749787</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H11">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I11">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J11">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>34.877361</v>
       </c>
       <c r="O11">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P11">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q11">
-        <v>117.542833359749</v>
+        <v>152.6818481972333</v>
       </c>
       <c r="R11">
-        <v>1057.885500237741</v>
+        <v>1374.1366337751</v>
       </c>
       <c r="S11">
-        <v>0.02322349198346925</v>
+        <v>0.02587733217045819</v>
       </c>
       <c r="T11">
-        <v>0.02322349198346926</v>
+        <v>0.02587733217045819</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H12">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I12">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J12">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N12">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O12">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P12">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q12">
-        <v>24.16953496018833</v>
+        <v>59.70463004638889</v>
       </c>
       <c r="R12">
-        <v>217.525814641695</v>
+        <v>537.3416704175</v>
       </c>
       <c r="S12">
-        <v>0.00477528901889074</v>
+        <v>0.01011905843469296</v>
       </c>
       <c r="T12">
-        <v>0.004775289018890742</v>
+        <v>0.01011905843469296</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.110527</v>
+        <v>13.13303333333333</v>
       </c>
       <c r="H13">
-        <v>30.331581</v>
+        <v>39.3991</v>
       </c>
       <c r="I13">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488614</v>
       </c>
       <c r="J13">
-        <v>0.0351510477623638</v>
+        <v>0.04359141545488615</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N13">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O13">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P13">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q13">
-        <v>0.2638375722406666</v>
+        <v>0.2856697410666667</v>
       </c>
       <c r="R13">
-        <v>2.374538150166</v>
+        <v>2.5710276696</v>
       </c>
       <c r="S13">
-        <v>5.212763355053939E-05</v>
+        <v>4.841682798521997E-05</v>
       </c>
       <c r="T13">
-        <v>5.212763355053939E-05</v>
+        <v>4.841682798521998E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H14">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I14">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J14">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.554362333333333</v>
+        <v>3.390429</v>
       </c>
       <c r="N14">
-        <v>10.663087</v>
+        <v>10.171287</v>
       </c>
       <c r="O14">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="P14">
-        <v>0.2019894022634335</v>
+        <v>0.173121426386348</v>
       </c>
       <c r="Q14">
-        <v>29.563462022935</v>
+        <v>24.058219730538</v>
       </c>
       <c r="R14">
-        <v>266.071158206415</v>
+        <v>216.523977574842</v>
       </c>
       <c r="S14">
-        <v>0.005840992629401211</v>
+        <v>0.004077515112292726</v>
       </c>
       <c r="T14">
-        <v>0.005840992629401212</v>
+        <v>0.004077515112292727</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H15">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I15">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J15">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>34.877361</v>
       </c>
       <c r="O15">
-        <v>0.6606770910634029</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="P15">
-        <v>0.660677091063403</v>
+        <v>0.5936336753560868</v>
       </c>
       <c r="Q15">
-        <v>96.697657759305</v>
+        <v>82.495677740614</v>
       </c>
       <c r="R15">
-        <v>870.278919833745</v>
+        <v>742.4610996655259</v>
       </c>
       <c r="S15">
-        <v>0.01910501232278845</v>
+        <v>0.01398180648667066</v>
       </c>
       <c r="T15">
-        <v>0.01910501232278845</v>
+        <v>0.01398180648667066</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H16">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I16">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J16">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.390531666666666</v>
+        <v>4.546141666666667</v>
       </c>
       <c r="N16">
-        <v>7.171595</v>
+        <v>13.638425</v>
       </c>
       <c r="O16">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="P16">
-        <v>0.1358505456558151</v>
+        <v>0.2321342018628743</v>
       </c>
       <c r="Q16">
-        <v>19.883282995475</v>
+        <v>32.25906666761666</v>
       </c>
       <c r="R16">
-        <v>178.949546959275</v>
+        <v>290.33160000855</v>
       </c>
       <c r="S16">
-        <v>0.003928434001903068</v>
+        <v>0.00546743829422677</v>
       </c>
       <c r="T16">
-        <v>0.003928434001903069</v>
+        <v>0.005467438294226772</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.317515</v>
+        <v>7.095921999999999</v>
       </c>
       <c r="H17">
-        <v>24.952545</v>
+        <v>21.287766</v>
       </c>
       <c r="I17">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="J17">
-        <v>0.02891732221566466</v>
+        <v>0.02355292003655921</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.02609533333333333</v>
+        <v>0.021752</v>
       </c>
       <c r="N17">
-        <v>0.07828599999999999</v>
+        <v>0.06525600000000001</v>
       </c>
       <c r="O17">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="P17">
-        <v>0.001482961017348462</v>
+        <v>0.001110696394691009</v>
       </c>
       <c r="Q17">
-        <v>0.21704832643</v>
+        <v>0.154350495344</v>
       </c>
       <c r="R17">
-        <v>1.95343493787</v>
+        <v>1.389154458096</v>
       </c>
       <c r="S17">
-        <v>4.288326157193533E-05</v>
+        <v>2.616014336905194E-05</v>
       </c>
       <c r="T17">
-        <v>4.288326157193534E-05</v>
+        <v>2.616014336905194E-05</v>
       </c>
     </row>
   </sheetData>
